--- a/biology/Histoire de la zoologie et de la botanique/Michael_Heads/Michael_Heads.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Michael_Heads/Michael_Heads.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael J. Heads, né en 1957[1], est un botaniste néo-zélandais qui a travaillé au district écologique de Spenser, au Nord de l'île du Sud, en Nouvelle-Zélande. Il a enseigné la botanique à l'université d'Otago de Dunedin, puis au département des sciences biologiques de la faculté des sciences de l'université du Zimbabwe de Harare[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael J. Heads, né en 1957, est un botaniste néo-zélandais qui a travaillé au district écologique de Spenser, au Nord de l'île du Sud, en Nouvelle-Zélande. Il a enseigné la botanique à l'université d'Otago de Dunedin, puis au département des sciences biologiques de la faculté des sciences de l'université du Zimbabwe de Harare.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Michael J. Heads. 2012, Molecular Panbiogeography of the Tropics. Species and Systematics, éd. Univ. of California Press, 566 pp.  (ISBN 0-520-27196-3)
 Robin c. Craw, John R. Grehan, Michael J. Heads. 1999, Panbiogeography: tracking the history of life, éd. Oxford University Press. 229 pp.  (ISBN 0-19-507441-6),  (ISBN 9780195074413)
